--- a/_resource/excel/R-任务-任务链刷新-(框架定义,策划填写).xlsx
+++ b/_resource/excel/R-任务-任务链刷新-(框架定义,策划填写).xlsx
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,99 +380,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b val="0"/>
@@ -796,7 +704,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
